--- a/Design/DataTable/GroundPattern.xlsx
+++ b/Design/DataTable/GroundPattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40333339-E1E3-43F2-BEA2-667CE4174C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA864F3-3A43-4335-A375-0A1BF5F5090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -481,151 +481,151 @@
         <v>7</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:51" x14ac:dyDescent="0.4">
@@ -636,151 +636,151 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:51" x14ac:dyDescent="0.4">
@@ -791,151 +791,151 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:51" x14ac:dyDescent="0.4">
@@ -946,151 +946,151 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AB6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:51" x14ac:dyDescent="0.4">
@@ -1101,151 +1101,151 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:51" x14ac:dyDescent="0.4">
@@ -1256,151 +1256,151 @@
         <v>3</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:51" x14ac:dyDescent="0.4">
@@ -1411,151 +1411,151 @@
         <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:51" x14ac:dyDescent="0.4">
@@ -1566,151 +1566,151 @@
         <v>18</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:51" x14ac:dyDescent="0.4">
@@ -1721,151 +1721,151 @@
         <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:51" x14ac:dyDescent="0.4">
@@ -1876,151 +1876,151 @@
         <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:51" x14ac:dyDescent="0.4">
@@ -2031,151 +2031,151 @@
         <v>14</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:51" x14ac:dyDescent="0.4">
@@ -2186,151 +2186,151 @@
         <v>15</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:51" x14ac:dyDescent="0.4">
@@ -2341,151 +2341,151 @@
         <v>16</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AA15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:51" x14ac:dyDescent="0.4">
@@ -2496,151 +2496,151 @@
         <v>17</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AK16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AN16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AO16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AR16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Design/DataTable/GroundPattern.xlsx
+++ b/Design/DataTable/GroundPattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA864F3-3A43-4335-A375-0A1BF5F5090B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4601F-4025-4753-99AB-0C4525FD9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,10 +85,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Code</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>GroundType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Tiles</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -456,10 +456,10 @@
         <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.4">
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16">
         <v>1</v>

--- a/Design/DataTable/GroundPattern.xlsx
+++ b/Design/DataTable/GroundPattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AC4601F-4025-4753-99AB-0C4525FD9229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A61F2393-474D-441B-A9C9-5B512F39D36C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,10 +38,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -114,6 +110,10 @@
   </si>
   <si>
     <t>Tiles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int(TileType)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:AY16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -453,13 +453,13 @@
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.4">
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.4">
@@ -478,7 +478,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -943,7 +943,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
@@ -1098,7 +1098,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1253,7 +1253,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1408,7 +1408,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1563,7 +1563,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -1718,7 +1718,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2028,7 +2028,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -2183,7 +2183,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2338,7 +2338,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2493,7 +2493,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>1</v>

--- a/Design/DataTable/GroundPattern.xlsx
+++ b/Design/DataTable/GroundPattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D330453C-800C-463C-88C3-4406268B8F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171673AA-00C5-4FE5-84C7-61FF2E378082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="20">
   <si>
     <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,10 +114,6 @@
   </si>
   <si>
     <t>Tiles</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LU</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27:AY27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4301,7 +4297,7 @@
         <v>2</v>
       </c>
       <c r="AI27">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ27">
         <v>1</v>
@@ -7302,7 +7298,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -7457,7 +7453,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -7612,7 +7608,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C49">
         <v>1</v>
@@ -7767,7 +7763,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C50">
         <v>1</v>
@@ -7922,7 +7918,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -8077,7 +8073,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -8232,7 +8228,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C53">
         <v>1</v>
@@ -8387,7 +8383,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C54">
         <v>1</v>
@@ -8542,7 +8538,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -8697,7 +8693,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C56">
         <v>1</v>

--- a/Design/DataTable/GroundPattern.xlsx
+++ b/Design/DataTable/GroundPattern.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Desktop\CBC\취준\3주완성게임프로젝트\게임파일\PlumTowerDefecne\Design\DataTable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{171673AA-00C5-4FE5-84C7-61FF2E378082}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC797E50-428B-4F35-8B3D-90A8F560D814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -145,9 +145,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -157,8 +175,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -441,8 +461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AY116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27:AY27"/>
+    <sheetView tabSelected="1" topLeftCell="A88" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M99" sqref="M99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -16308,20 +16328,20 @@
       <c r="H105">
         <v>1</v>
       </c>
-      <c r="I105">
-        <v>1</v>
-      </c>
-      <c r="J105">
+      <c r="I105" s="1">
+        <v>1</v>
+      </c>
+      <c r="J105" s="2">
         <v>1</v>
       </c>
       <c r="K105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N105">
         <v>1</v>
@@ -16329,20 +16349,20 @@
       <c r="O105">
         <v>1</v>
       </c>
-      <c r="P105">
-        <v>1</v>
-      </c>
-      <c r="Q105">
+      <c r="P105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q105" s="2">
         <v>1</v>
       </c>
       <c r="R105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S105">
         <v>1</v>
       </c>
       <c r="T105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U105">
         <v>1</v>
@@ -16350,31 +16370,31 @@
       <c r="V105">
         <v>1</v>
       </c>
-      <c r="W105">
-        <v>1</v>
-      </c>
-      <c r="X105">
+      <c r="W105" s="1">
+        <v>1</v>
+      </c>
+      <c r="X105" s="2">
         <v>2</v>
       </c>
       <c r="Y105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z105">
         <v>1</v>
       </c>
       <c r="AA105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AB105">
         <v>1</v>
       </c>
       <c r="AC105">
-        <v>1</v>
-      </c>
-      <c r="AD105">
-        <v>2</v>
-      </c>
-      <c r="AE105">
+        <v>2</v>
+      </c>
+      <c r="AD105" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE105" s="2">
         <v>1</v>
       </c>
       <c r="AF105">
@@ -16384,18 +16404,18 @@
         <v>1</v>
       </c>
       <c r="AH105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI105">
         <v>1</v>
       </c>
       <c r="AJ105">
-        <v>1</v>
-      </c>
-      <c r="AK105">
-        <v>1</v>
-      </c>
-      <c r="AL105">
+        <v>2</v>
+      </c>
+      <c r="AK105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL105" s="2">
         <v>1</v>
       </c>
       <c r="AM105">
@@ -16405,15 +16425,15 @@
         <v>1</v>
       </c>
       <c r="AO105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
-      </c>
-      <c r="AR105">
+        <v>2</v>
+      </c>
+      <c r="AR105" s="1">
         <v>1</v>
       </c>
       <c r="AS105">
